--- a/Datos/Database by set/Set with text box/Xlsx sets/Judge Gift Cards 2006 (G06).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Judge Gift Cards 2006 (G06).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,154 +444,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Exalted Angel</t>
+          <t>('Exalted Angel', ['{4}{W}{W}', 'Creature — Angel', 'Flying', 'Whenever Exalted Angel deals damage, you gain that much life.', 'Morph {2}{W}{W} (You may cast this card face down as a 2/2 creature for {3}. Turn it face up any time for its morph cost.)', '4/5'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{4}{W}{W}</t>
+          <t>('Grim Lavamancer', ['{R}', 'Creature — Human Wizard', '{R}, {T}, Exile two cards from your graveyard: Grim Lavamancer deals 2 damage to any target.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Angel</t>
+          <t>('Meddling Mage', ['{W}{U}', 'Creature — Human Wizard', 'As Meddling Mage enters the battlefield, choose a nonland card name.', 'Spells with the chosen name can’t be cast.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Whenever Exalted Angel deals damage, you gain that much life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Morph {2}{W}{W} (You may cast this card face down as a 2/2 creature for {3}. Turn it face up any time for its morph cost.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Grim Lavamancer</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Creature — Human Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>{R}, {T}, Exile two cards from your graveyard: Grim Lavamancer deals 2 damage to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Meddling Mage</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>{W}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Creature — Human Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>As Meddling Mage enters the battlefield, choose a nonland card name.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Spells with the chosen name can’t be cast.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Pernicious Deed</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>{1}{B}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>{X}, Sacrifice Pernicious Deed: Destroy each artifact, creature, and enchantment with converted mana cost X or less.</t>
+          <t>('Pernicious Deed', ['{1}{B}{G}', 'Enchantment', '{X}, Sacrifice Pernicious Deed: Destroy each artifact, creature, and enchantment with converted mana cost X or less.'])</t>
         </is>
       </c>
     </row>
